--- a/Accounting_App/Reports/Report_T001.xlsx
+++ b/Accounting_App/Reports/Report_T001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Lin\Desktop\可愛團契記帳軟體\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Project\Accounting_App\Accounting_App\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,8 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[=0]&quot;&quot;;#,##0"/>
+    <numFmt numFmtId="177" formatCode="[=0]&quot;0&quot;;#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -196,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +255,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,15 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +508,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -514,37 +521,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -558,23 +565,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="26">
         <v>100</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -585,11 +592,11 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -600,31 +607,27 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24">
-        <f>G7+E8-F8</f>
-        <v>0</v>
-      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24">
-        <f>G7+E9-F9</f>
-        <v>0</v>
-      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -633,15 +636,15 @@
       <c r="D10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="20">
         <f>SUM(E8:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="20">
         <f>SUM(F8:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="23">
         <f>$G$7+E10-F10</f>
         <v>0</v>
       </c>
